--- a/StructureDefinition-quality-measure-report-organization.xlsx
+++ b/StructureDefinition-quality-measure-report-organization.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2571" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2571" uniqueCount="271">
   <si>
     <t>Path</t>
   </si>
@@ -328,17 +328,14 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>measureParameterValues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/measure-parameter-values}
+    <t>measureParameterValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/measure-parameter-value}
 </t>
   </si>
   <si>
-    <t>Measure parameter values used to generate the measure report.</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
+    <t>Measure parameter value used to generate the measure report</t>
   </si>
   <si>
     <t>MeasureReport.modifierExtension</t>
@@ -640,9 +637,6 @@
     <t>initial-population | numerator | numerator-exclusion | denominator | denominator-exclusion | denominator-exception | care-gap</t>
   </si>
   <si>
-    <t>The type of the population.</t>
-  </si>
-  <si>
     <t>extensible</t>
   </si>
   <si>
@@ -679,6 +673,9 @@
   </si>
   <si>
     <t>initial-population | numerator | numerator-exclusion | denominator | denominator-exclusion | denominator-exception | measure-population | measure-population-exclusion | measure-observation</t>
+  </si>
+  <si>
+    <t>The type of the population.</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -698,7 +695,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://terminology.hl7.org/CodeSystem/measure-population"/&gt;
-    &lt;code value="denominator-exclusion"/&gt;
+    &lt;code value="numerator"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -709,7 +706,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://terminology.hl7.org/CodeSystem/measure-population"/&gt;
-    &lt;code value="numerator"/&gt;
+    &lt;code value="denominator"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1038,7 +1035,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="65.3359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.83203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2054,7 +2051,7 @@
         <v>101</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2128,11 +2125,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2154,16 +2151,16 @@
         <v>92</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>38</v>
@@ -2212,7 +2209,7 @@
         <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>39</v>
@@ -2235,7 +2232,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2258,19 +2255,19 @@
         <v>47</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>38</v>
@@ -2319,7 +2316,7 @@
         <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>39</v>
@@ -2334,7 +2331,7 @@
         <v>59</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
@@ -2342,7 +2339,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2368,13 +2365,13 @@
         <v>68</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2385,29 +2382,29 @@
         <v>38</v>
       </c>
       <c r="R13" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W13" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="S13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W13" t="s" s="2">
+      <c r="X13" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="X13" t="s" s="2">
+      <c r="Y13" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="Y13" t="s" s="2">
-        <v>124</v>
-      </c>
       <c r="Z13" t="s" s="2">
         <v>38</v>
       </c>
@@ -2424,7 +2421,7 @@
         <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>46</v>
@@ -2439,7 +2436,7 @@
         <v>59</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>38</v>
@@ -2447,7 +2444,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2473,13 +2470,13 @@
         <v>68</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2505,46 +2502,46 @@
         <v>38</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH14" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>38</v>
@@ -2552,7 +2549,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2575,13 +2572,13 @@
         <v>47</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2632,7 +2629,7 @@
         <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>46</v>
@@ -2647,7 +2644,7 @@
         <v>59</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>38</v>
@@ -2655,7 +2652,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2678,13 +2675,13 @@
         <v>47</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2735,7 +2732,7 @@
         <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>39</v>
@@ -2750,7 +2747,7 @@
         <v>59</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>38</v>
@@ -2758,7 +2755,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2781,13 +2778,13 @@
         <v>47</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2838,7 +2835,7 @@
         <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>39</v>
@@ -2853,7 +2850,7 @@
         <v>59</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>38</v>
@@ -2861,7 +2858,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2884,13 +2881,13 @@
         <v>47</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2941,7 +2938,7 @@
         <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>39</v>
@@ -2956,7 +2953,7 @@
         <v>59</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>38</v>
@@ -2964,7 +2961,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2987,13 +2984,13 @@
         <v>47</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3044,7 +3041,7 @@
         <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>46</v>
@@ -3067,7 +3064,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3090,16 +3087,16 @@
         <v>47</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3125,14 +3122,14 @@
         <v>38</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="Y20" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="Z20" t="s" s="2">
         <v>38</v>
       </c>
@@ -3149,7 +3146,7 @@
         <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>39</v>
@@ -3172,7 +3169,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3195,13 +3192,13 @@
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3252,7 +3249,7 @@
         <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>39</v>
@@ -3261,7 +3258,7 @@
         <v>40</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>59</v>
@@ -3275,7 +3272,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3301,10 +3298,10 @@
         <v>48</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3355,34 +3352,34 @@
         <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>173</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3404,13 +3401,13 @@
         <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="M23" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3460,7 +3457,7 @@
         <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>39</v>
@@ -3478,16 +3475,16 @@
         <v>38</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3509,16 +3506,16 @@
         <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="M24" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>38</v>
@@ -3567,7 +3564,7 @@
         <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>39</v>
@@ -3590,7 +3587,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3613,13 +3610,13 @@
         <v>47</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3670,7 +3667,7 @@
         <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>39</v>
@@ -3693,7 +3690,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3701,7 +3698,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>40</v>
@@ -3716,13 +3713,13 @@
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3761,10 +3758,10 @@
         <v>38</v>
       </c>
       <c r="AA26" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AB26" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>38</v>
@@ -3773,7 +3770,7 @@
         <v>96</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>39</v>
@@ -3796,7 +3793,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3822,10 +3819,10 @@
         <v>48</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3876,34 +3873,34 @@
         <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>173</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -3925,13 +3922,13 @@
         <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="M28" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -3981,7 +3978,7 @@
         <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>39</v>
@@ -3999,16 +3996,16 @@
         <v>38</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4030,16 +4027,16 @@
         <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="M29" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>38</v>
@@ -4088,7 +4085,7 @@
         <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>39</v>
@@ -4111,7 +4108,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4134,13 +4131,13 @@
         <v>47</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4167,11 +4164,11 @@
         <v>38</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>38</v>
@@ -4189,7 +4186,7 @@
         <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>39</v>
@@ -4212,7 +4209,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4235,13 +4232,13 @@
         <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4292,7 +4289,7 @@
         <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>39</v>
@@ -4315,7 +4312,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4338,13 +4335,13 @@
         <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4395,7 +4392,7 @@
         <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>39</v>
@@ -4418,10 +4415,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>38</v>
@@ -4443,13 +4440,13 @@
         <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4500,7 +4497,7 @@
         <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>39</v>
@@ -4523,7 +4520,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4549,10 +4546,10 @@
         <v>48</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4603,34 +4600,34 @@
         <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>173</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -4652,13 +4649,13 @@
         <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="M35" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -4708,7 +4705,7 @@
         <v>38</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>39</v>
@@ -4726,16 +4723,16 @@
         <v>38</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -4757,16 +4754,16 @@
         <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="M36" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>38</v>
@@ -4815,7 +4812,7 @@
         <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>39</v>
@@ -4838,7 +4835,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4861,13 +4858,13 @@
         <v>47</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4879,7 +4876,7 @@
         <v>38</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>38</v>
@@ -4894,11 +4891,11 @@
         <v>38</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>38</v>
@@ -4916,7 +4913,7 @@
         <v>38</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>39</v>
@@ -4939,7 +4936,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4962,13 +4959,13 @@
         <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5019,7 +5016,7 @@
         <v>38</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>39</v>
@@ -5042,7 +5039,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5065,13 +5062,13 @@
         <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5122,7 +5119,7 @@
         <v>38</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>39</v>
@@ -5145,10 +5142,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>38</v>
@@ -5170,13 +5167,13 @@
         <v>38</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5227,7 +5224,7 @@
         <v>38</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>39</v>
@@ -5250,7 +5247,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5276,10 +5273,10 @@
         <v>48</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5330,34 +5327,34 @@
         <v>38</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>173</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5379,13 +5376,13 @@
         <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="M42" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5435,7 +5432,7 @@
         <v>38</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>39</v>
@@ -5453,16 +5450,16 @@
         <v>38</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -5484,16 +5481,16 @@
         <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="M43" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>38</v>
@@ -5542,7 +5539,7 @@
         <v>38</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>39</v>
@@ -5565,7 +5562,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5588,13 +5585,13 @@
         <v>47</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5606,7 +5603,7 @@
         <v>38</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>38</v>
@@ -5621,11 +5618,11 @@
         <v>38</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>38</v>
@@ -5643,7 +5640,7 @@
         <v>38</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>39</v>
@@ -5666,7 +5663,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5689,13 +5686,13 @@
         <v>38</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5746,7 +5743,7 @@
         <v>38</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>39</v>
@@ -5769,7 +5766,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5792,13 +5789,13 @@
         <v>38</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5849,7 +5846,7 @@
         <v>38</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>39</v>
@@ -5872,10 +5869,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>38</v>
@@ -5897,13 +5894,13 @@
         <v>38</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -5954,7 +5951,7 @@
         <v>38</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>39</v>
@@ -5977,7 +5974,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6003,10 +6000,10 @@
         <v>48</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6057,34 +6054,34 @@
         <v>38</v>
       </c>
       <c r="AE48" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>173</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6106,13 +6103,13 @@
         <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="M49" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6162,7 +6159,7 @@
         <v>38</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>39</v>
@@ -6180,16 +6177,16 @@
         <v>38</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6211,16 +6208,16 @@
         <v>92</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L50" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="M50" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>38</v>
@@ -6269,7 +6266,7 @@
         <v>38</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>39</v>
@@ -6292,7 +6289,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6315,13 +6312,13 @@
         <v>47</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6333,7 +6330,7 @@
         <v>38</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>38</v>
@@ -6348,11 +6345,11 @@
         <v>38</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="X51" s="2"/>
       <c r="Y51" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>38</v>
@@ -6370,7 +6367,7 @@
         <v>38</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>39</v>
@@ -6393,7 +6390,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6416,13 +6413,13 @@
         <v>38</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6473,7 +6470,7 @@
         <v>38</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>39</v>
@@ -6496,7 +6493,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6519,13 +6516,13 @@
         <v>38</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6576,7 +6573,7 @@
         <v>38</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>39</v>
@@ -6599,7 +6596,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6622,13 +6619,13 @@
         <v>47</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -6679,7 +6676,7 @@
         <v>38</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>39</v>
@@ -6702,7 +6699,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -6725,13 +6722,13 @@
         <v>38</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -6782,7 +6779,7 @@
         <v>38</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>39</v>
@@ -6805,7 +6802,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -6831,10 +6828,10 @@
         <v>48</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -6885,34 +6882,34 @@
         <v>38</v>
       </c>
       <c r="AE56" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>173</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -6934,13 +6931,13 @@
         <v>92</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L57" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="M57" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -6990,7 +6987,7 @@
         <v>38</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>39</v>
@@ -7008,16 +7005,16 @@
         <v>38</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7039,16 +7036,16 @@
         <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="M58" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>38</v>
@@ -7097,7 +7094,7 @@
         <v>38</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>39</v>
@@ -7120,7 +7117,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7143,13 +7140,13 @@
         <v>38</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7200,7 +7197,7 @@
         <v>38</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>39</v>
@@ -7223,7 +7220,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7246,13 +7243,13 @@
         <v>38</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7303,7 +7300,7 @@
         <v>38</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>39</v>
@@ -7326,7 +7323,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7352,10 +7349,10 @@
         <v>48</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7406,34 +7403,34 @@
         <v>38</v>
       </c>
       <c r="AE61" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>173</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -7455,13 +7452,13 @@
         <v>92</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L62" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="M62" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -7511,7 +7508,7 @@
         <v>38</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>39</v>
@@ -7529,16 +7526,16 @@
         <v>38</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -7560,16 +7557,16 @@
         <v>92</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L63" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="M63" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>38</v>
@@ -7618,7 +7615,7 @@
         <v>38</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>39</v>
@@ -7641,7 +7638,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -7664,13 +7661,13 @@
         <v>38</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -7721,7 +7718,7 @@
         <v>38</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>39</v>
@@ -7744,7 +7741,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -7767,13 +7764,13 @@
         <v>38</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -7824,7 +7821,7 @@
         <v>38</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>39</v>
@@ -7847,7 +7844,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -7873,10 +7870,10 @@
         <v>48</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -7927,34 +7924,34 @@
         <v>38</v>
       </c>
       <c r="AE66" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK66" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>173</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -7976,13 +7973,13 @@
         <v>92</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L67" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="M67" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -8032,7 +8029,7 @@
         <v>38</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>39</v>
@@ -8050,16 +8047,16 @@
         <v>38</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -8081,16 +8078,16 @@
         <v>92</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L68" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="M68" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>38</v>
@@ -8139,7 +8136,7 @@
         <v>38</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>39</v>
@@ -8162,7 +8159,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8185,13 +8182,13 @@
         <v>38</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8242,7 +8239,7 @@
         <v>38</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>46</v>
@@ -8265,7 +8262,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8288,13 +8285,13 @@
         <v>38</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8345,7 +8342,7 @@
         <v>38</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>46</v>
@@ -8368,7 +8365,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8391,13 +8388,13 @@
         <v>38</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -8448,7 +8445,7 @@
         <v>38</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>39</v>
@@ -8471,7 +8468,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -8497,10 +8494,10 @@
         <v>48</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -8551,34 +8548,34 @@
         <v>38</v>
       </c>
       <c r="AE72" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK72" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>173</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -8600,13 +8597,13 @@
         <v>92</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L73" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="M73" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -8656,7 +8653,7 @@
         <v>38</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>39</v>
@@ -8674,16 +8671,16 @@
         <v>38</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -8705,16 +8702,16 @@
         <v>92</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L74" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="M74" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>38</v>
@@ -8763,7 +8760,7 @@
         <v>38</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>39</v>
@@ -8786,7 +8783,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -8809,13 +8806,13 @@
         <v>38</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -8842,14 +8839,14 @@
         <v>38</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="X75" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="Y75" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="Y75" t="s" s="2">
-        <v>259</v>
-      </c>
       <c r="Z75" t="s" s="2">
         <v>38</v>
       </c>
@@ -8866,7 +8863,7 @@
         <v>38</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>39</v>
@@ -8889,7 +8886,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -8912,13 +8909,13 @@
         <v>38</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -8969,7 +8966,7 @@
         <v>38</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>39</v>
@@ -8992,7 +8989,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9015,13 +9012,13 @@
         <v>38</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9072,7 +9069,7 @@
         <v>38</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>39</v>
@@ -9095,7 +9092,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9118,13 +9115,13 @@
         <v>38</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -9175,7 +9172,7 @@
         <v>38</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>39</v>
@@ -9198,7 +9195,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9221,13 +9218,13 @@
         <v>38</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="K79" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="K79" t="s" s="2">
+      <c r="L79" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -9278,7 +9275,7 @@
         <v>38</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>39</v>

--- a/StructureDefinition-quality-measure-report-organization.xlsx
+++ b/StructureDefinition-quality-measure-report-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:48:04+00:00</t>
+    <t>2021-09-21T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report-organization.xlsx
+++ b/StructureDefinition-quality-measure-report-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T12:28:41+00:00</t>
+    <t>2021-09-28T19:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report-organization.xlsx
+++ b/StructureDefinition-quality-measure-report-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report-organization.xlsx
+++ b/StructureDefinition-quality-measure-report-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report-organization.xlsx
+++ b/StructureDefinition-quality-measure-report-organization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-21T20:46:54+00:00</t>
+    <t>2022-05-31T20:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report-organization.xlsx
+++ b/StructureDefinition-quality-measure-report-organization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T20:10:14+00:00</t>
+    <t>2022-06-06T15:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report-organization.xlsx
+++ b/StructureDefinition-quality-measure-report-organization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T15:56:40+00:00</t>
+    <t>2022-09-01T20:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1291,42 +1291,42 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="65.3359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.87890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="179.47265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="179.4765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="139.4375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.4453125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="139.44140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.44921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.98828125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="61.44921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="61.453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-quality-measure-report-organization.xlsx
+++ b/StructureDefinition-quality-measure-report-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report-organization.xlsx
+++ b/StructureDefinition-quality-measure-report-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report-organization.xlsx
+++ b/StructureDefinition-quality-measure-report-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report-organization.xlsx
+++ b/StructureDefinition-quality-measure-report-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report-organization.xlsx
+++ b/StructureDefinition-quality-measure-report-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report-organization.xlsx
+++ b/StructureDefinition-quality-measure-report-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report-organization.xlsx
+++ b/StructureDefinition-quality-measure-report-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report-organization.xlsx
+++ b/StructureDefinition-quality-measure-report-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report-organization.xlsx
+++ b/StructureDefinition-quality-measure-report-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report-organization.xlsx
+++ b/StructureDefinition-quality-measure-report-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report-organization.xlsx
+++ b/StructureDefinition-quality-measure-report-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report-organization.xlsx
+++ b/StructureDefinition-quality-measure-report-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report-organization.xlsx
+++ b/StructureDefinition-quality-measure-report-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report-organization.xlsx
+++ b/StructureDefinition-quality-measure-report-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report-organization.xlsx
+++ b/StructureDefinition-quality-measure-report-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2837" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2837" uniqueCount="307">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -262,392 +262,396 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>MeasureReport.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+</t>
+  </si>
+  <si>
+    <t>Metadata about a resource</t>
+  </si>
+  <si>
+    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>MeasureReport.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>MeasureReport.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>MeasureReport.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>MeasureReport.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>MeasureReport.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>measureParameterValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/measure-parameter-value}
+</t>
+  </si>
+  <si>
+    <t>Measure parameter value used to generate the measure report</t>
+  </si>
+  <si>
+    <t>MeasureReport.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>MeasureReport.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Additional identifier for the MeasureReport</t>
+  </si>
+  <si>
+    <t>A formal identifier that is used to identify this MeasureReport when it is represented in other formats or referenced in a specification, model, design or an instance.</t>
+  </si>
+  <si>
+    <t>Typically, this is used for identifiers that can go in an HL7 V3 II data type - e.g. to identify this {{title}} outside of FHIR, where the logical URL is not possible to use.</t>
+  </si>
+  <si>
+    <t>Allows externally provided and/or usable business identifiers to be easily associated with the module.</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>MeasureReport.status</t>
+  </si>
+  <si>
+    <t>complete | pending | error</t>
+  </si>
+  <si>
+    <t>The MeasureReport status. No data will be available until the MeasureReport status is complete.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The status of the measure report.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/measure-report-status|4.0.1</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>MeasureReport.type</t>
+  </si>
+  <si>
+    <t>individual | subject-list | summary | data-collection</t>
+  </si>
+  <si>
+    <t>The type of measure report. This may be an individual report, which provides the score for the measure for an individual member of the population; a subject-listing, which returns the list of members that meet the various criteria in the measure; a summary report, which returns a population count for each of the criteria in the measure; or a data-collection, which enables the MeasureReport to be used to exchange the data-of-interest for a quality measure.</t>
+  </si>
+  <si>
+    <t>Data-collection reports are used only to communicate data-of-interest for a measure. They do not necessarily include all the data for a particular subject or population, but they may.</t>
+  </si>
+  <si>
+    <t>The type of the measure report.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/measure-report-type|4.0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mrp-1
+</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>MeasureReport.measure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(Measure)
+</t>
+  </si>
+  <si>
+    <t>What measure was calculated</t>
+  </si>
+  <si>
+    <t>A reference to the Measure that was calculated to produce this report.</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>MeasureReport.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Group)
+</t>
+  </si>
+  <si>
+    <t>What individual(s) the report is for</t>
+  </si>
+  <si>
+    <t>Optional subject identifying the individual or individuals the report is for.</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>MeasureReport.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>When the report was generated</t>
+  </si>
+  <si>
+    <t>The date this measure report was generated.</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>MeasureReport.reporter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Location|Organization)
+</t>
+  </si>
+  <si>
+    <t>Who is reporting the data</t>
+  </si>
+  <si>
+    <t>The individual, location, or organization that is reporting the data.</t>
+  </si>
+  <si>
+    <t>FiveWs.source</t>
+  </si>
+  <si>
+    <t>MeasureReport.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>What period the report covers</t>
+  </si>
+  <si>
+    <t>The reporting period for which the report was calculated.</t>
+  </si>
+  <si>
+    <t>MeasureReport.improvementNotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>increase | decrease</t>
+  </si>
+  <si>
+    <t>Whether improvement in the measure is noted by an increase or decrease in the measure score.</t>
+  </si>
+  <si>
+    <t>This element is typically defined by the measure, but reproduced here to ensure the measure score can be interpreted. The element is labeled as a modifier because it changes the interpretation of the reported measure score.</t>
+  </si>
+  <si>
+    <t>Observation values that indicate what change in a measurement value or score is indicative of an improvement in the measured item or scored issue.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/measure-improvement-notation|4.0.1</t>
+  </si>
+  <si>
+    <t>MeasureReport.group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Measure results for each group</t>
+  </si>
+  <si>
+    <t>The results of the calculation, one for each population group in the measure.</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>MeasureReport.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
-</t>
-  </si>
-  <si>
-    <t>Metadata about a resource</t>
-  </si>
-  <si>
-    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>MeasureReport.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>MeasureReport.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>MeasureReport.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>MeasureReport.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>MeasureReport.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>measureParameterValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/measure-parameter-value}
-</t>
-  </si>
-  <si>
-    <t>Measure parameter value used to generate the measure report</t>
-  </si>
-  <si>
-    <t>MeasureReport.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>MeasureReport.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Additional identifier for the MeasureReport</t>
-  </si>
-  <si>
-    <t>A formal identifier that is used to identify this MeasureReport when it is represented in other formats or referenced in a specification, model, design or an instance.</t>
-  </si>
-  <si>
-    <t>Typically, this is used for identifiers that can go in an HL7 V3 II data type - e.g. to identify this {{title}} outside of FHIR, where the logical URL is not possible to use.</t>
-  </si>
-  <si>
-    <t>Allows externally provided and/or usable business identifiers to be easily associated with the module.</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>MeasureReport.status</t>
-  </si>
-  <si>
-    <t>complete | pending | error</t>
-  </si>
-  <si>
-    <t>The MeasureReport status. No data will be available until the MeasureReport status is complete.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>complete</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The status of the measure report.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/measure-report-status|4.0.1</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>MeasureReport.type</t>
-  </si>
-  <si>
-    <t>individual | subject-list | summary | data-collection</t>
-  </si>
-  <si>
-    <t>The type of measure report. This may be an individual report, which provides the score for the measure for an individual member of the population; a subject-listing, which returns the list of members that meet the various criteria in the measure; a summary report, which returns a population count for each of the criteria in the measure; or a data-collection, which enables the MeasureReport to be used to exchange the data-of-interest for a quality measure.</t>
-  </si>
-  <si>
-    <t>Data-collection reports are used only to communicate data-of-interest for a measure. They do not necessarily include all the data for a particular subject or population, but they may.</t>
-  </si>
-  <si>
-    <t>The type of the measure report.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/measure-report-type|4.0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mrp-1
-</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>MeasureReport.measure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(Measure)
-</t>
-  </si>
-  <si>
-    <t>What measure was calculated</t>
-  </si>
-  <si>
-    <t>A reference to the Measure that was calculated to produce this report.</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>MeasureReport.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Group)
-</t>
-  </si>
-  <si>
-    <t>What individual(s) the report is for</t>
-  </si>
-  <si>
-    <t>Optional subject identifying the individual or individuals the report is for.</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>MeasureReport.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>When the report was generated</t>
-  </si>
-  <si>
-    <t>The date this measure report was generated.</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>MeasureReport.reporter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Location|Organization)
-</t>
-  </si>
-  <si>
-    <t>Who is reporting the data</t>
-  </si>
-  <si>
-    <t>The individual, location, or organization that is reporting the data.</t>
-  </si>
-  <si>
-    <t>FiveWs.source</t>
-  </si>
-  <si>
-    <t>MeasureReport.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>What period the report covers</t>
-  </si>
-  <si>
-    <t>The reporting period for which the report was calculated.</t>
-  </si>
-  <si>
-    <t>MeasureReport.improvementNotation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>increase | decrease</t>
-  </si>
-  <si>
-    <t>Whether improvement in the measure is noted by an increase or decrease in the measure score.</t>
-  </si>
-  <si>
-    <t>This element is typically defined by the measure, but reproduced here to ensure the measure score can be interpreted. The element is labeled as a modifier because it changes the interpretation of the reported measure score.</t>
-  </si>
-  <si>
-    <t>Observation values that indicate what change in a measurement value or score is indicative of an improvement in the measured item or scored issue.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/measure-improvement-notation|4.0.1</t>
-  </si>
-  <si>
-    <t>MeasureReport.group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Measure results for each group</t>
-  </si>
-  <si>
-    <t>The results of the calculation, one for each population group in the measure.</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -3551,13 +3555,13 @@
         <v>72</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3608,7 +3612,7 @@
         <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>73</v>
@@ -3626,12 +3630,12 @@
         <v>72</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3657,10 +3661,10 @@
         <v>126</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>140</v>
@@ -3713,7 +3717,7 @@
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>73</v>
@@ -3731,16 +3735,16 @@
         <v>72</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3762,10 +3766,10 @@
         <v>126</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>140</v>
@@ -3820,7 +3824,7 @@
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>73</v>
@@ -3843,7 +3847,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3869,10 +3873,10 @@
         <v>192</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3923,7 +3927,7 @@
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>73</v>
@@ -3946,7 +3950,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3954,7 +3958,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>74</v>
@@ -3972,10 +3976,10 @@
         <v>199</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4014,10 +4018,10 @@
         <v>72</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>72</v>
@@ -4026,7 +4030,7 @@
         <v>130</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>73</v>
@@ -4049,7 +4053,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4072,13 +4076,13 @@
         <v>72</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4129,7 +4133,7 @@
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>73</v>
@@ -4147,12 +4151,12 @@
         <v>72</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4178,10 +4182,10 @@
         <v>126</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>140</v>
@@ -4234,7 +4238,7 @@
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>73</v>
@@ -4252,16 +4256,16 @@
         <v>72</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4283,10 +4287,10 @@
         <v>126</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>140</v>
@@ -4341,7 +4345,7 @@
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>73</v>
@@ -4364,7 +4368,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4390,10 +4394,10 @@
         <v>192</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4420,11 +4424,11 @@
         <v>72</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>72</v>
@@ -4442,7 +4446,7 @@
         <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>73</v>
@@ -4465,7 +4469,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4488,13 +4492,13 @@
         <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4545,7 +4549,7 @@
         <v>72</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>73</v>
@@ -4568,7 +4572,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4591,13 +4595,13 @@
         <v>72</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4648,7 +4652,7 @@
         <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>73</v>
@@ -4671,10 +4675,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>72</v>
@@ -4699,10 +4703,10 @@
         <v>199</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4753,7 +4757,7 @@
         <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>73</v>
@@ -4776,7 +4780,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4799,13 +4803,13 @@
         <v>72</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4856,7 +4860,7 @@
         <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>73</v>
@@ -4874,12 +4878,12 @@
         <v>72</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4905,10 +4909,10 @@
         <v>126</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>140</v>
@@ -4961,7 +4965,7 @@
         <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>73</v>
@@ -4979,16 +4983,16 @@
         <v>72</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5010,10 +5014,10 @@
         <v>126</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>140</v>
@@ -5068,7 +5072,7 @@
         <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>73</v>
@@ -5091,7 +5095,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5117,10 +5121,10 @@
         <v>192</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5132,7 +5136,7 @@
         <v>72</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>72</v>
@@ -5147,13 +5151,13 @@
         <v>72</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>72</v>
@@ -5171,7 +5175,7 @@
         <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>73</v>
@@ -5194,7 +5198,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5217,13 +5221,13 @@
         <v>72</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5274,7 +5278,7 @@
         <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>73</v>
@@ -5297,7 +5301,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5320,13 +5324,13 @@
         <v>72</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5377,7 +5381,7 @@
         <v>72</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>73</v>
@@ -5400,10 +5404,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>72</v>
@@ -5428,10 +5432,10 @@
         <v>199</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5482,7 +5486,7 @@
         <v>72</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>73</v>
@@ -5505,7 +5509,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5528,13 +5532,13 @@
         <v>72</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5585,7 +5589,7 @@
         <v>72</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>73</v>
@@ -5603,12 +5607,12 @@
         <v>72</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5634,10 +5638,10 @@
         <v>126</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>140</v>
@@ -5690,7 +5694,7 @@
         <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>73</v>
@@ -5708,16 +5712,16 @@
         <v>72</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -5739,10 +5743,10 @@
         <v>126</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>140</v>
@@ -5797,7 +5801,7 @@
         <v>72</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>73</v>
@@ -5820,7 +5824,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5846,10 +5850,10 @@
         <v>192</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5861,7 +5865,7 @@
         <v>72</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>72</v>
@@ -5876,13 +5880,13 @@
         <v>72</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>72</v>
@@ -5900,7 +5904,7 @@
         <v>72</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>73</v>
@@ -5923,7 +5927,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5946,13 +5950,13 @@
         <v>72</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6003,7 +6007,7 @@
         <v>72</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>73</v>
@@ -6026,7 +6030,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6049,13 +6053,13 @@
         <v>72</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6106,7 +6110,7 @@
         <v>72</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>73</v>
@@ -6129,10 +6133,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>72</v>
@@ -6157,10 +6161,10 @@
         <v>199</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6211,7 +6215,7 @@
         <v>72</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>73</v>
@@ -6234,7 +6238,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6257,13 +6261,13 @@
         <v>72</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6314,7 +6318,7 @@
         <v>72</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>73</v>
@@ -6332,12 +6336,12 @@
         <v>72</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6363,10 +6367,10 @@
         <v>126</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>140</v>
@@ -6419,7 +6423,7 @@
         <v>72</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>73</v>
@@ -6437,16 +6441,16 @@
         <v>72</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6468,10 +6472,10 @@
         <v>126</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>140</v>
@@ -6526,7 +6530,7 @@
         <v>72</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>73</v>
@@ -6549,7 +6553,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6575,10 +6579,10 @@
         <v>192</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6590,7 +6594,7 @@
         <v>72</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>72</v>
@@ -6605,13 +6609,13 @@
         <v>72</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>72</v>
@@ -6629,7 +6633,7 @@
         <v>72</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>73</v>
@@ -6652,7 +6656,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6675,13 +6679,13 @@
         <v>72</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6732,7 +6736,7 @@
         <v>72</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>73</v>
@@ -6755,7 +6759,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6778,13 +6782,13 @@
         <v>72</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6835,7 +6839,7 @@
         <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>73</v>
@@ -6858,10 +6862,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>72</v>
@@ -6886,10 +6890,10 @@
         <v>199</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -6940,7 +6944,7 @@
         <v>72</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>73</v>
@@ -6963,7 +6967,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -6986,13 +6990,13 @@
         <v>72</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7043,7 +7047,7 @@
         <v>72</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>73</v>
@@ -7061,12 +7065,12 @@
         <v>72</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7092,10 +7096,10 @@
         <v>126</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>140</v>
@@ -7148,7 +7152,7 @@
         <v>72</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>73</v>
@@ -7166,16 +7170,16 @@
         <v>72</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7197,10 +7201,10 @@
         <v>126</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>140</v>
@@ -7255,7 +7259,7 @@
         <v>72</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>73</v>
@@ -7278,7 +7282,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7304,10 +7308,10 @@
         <v>192</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7319,7 +7323,7 @@
         <v>72</v>
       </c>
       <c r="R58" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>72</v>
@@ -7334,13 +7338,13 @@
         <v>72</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>72</v>
@@ -7358,7 +7362,7 @@
         <v>72</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>73</v>
@@ -7381,7 +7385,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7404,13 +7408,13 @@
         <v>72</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7461,7 +7465,7 @@
         <v>72</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>73</v>
@@ -7484,7 +7488,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7507,13 +7511,13 @@
         <v>72</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7564,7 +7568,7 @@
         <v>72</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>73</v>
@@ -7587,7 +7591,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7610,13 +7614,13 @@
         <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7667,7 +7671,7 @@
         <v>72</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>73</v>
@@ -7690,7 +7694,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7716,10 +7720,10 @@
         <v>199</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -7770,7 +7774,7 @@
         <v>72</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>73</v>
@@ -7793,7 +7797,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7816,13 +7820,13 @@
         <v>72</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -7873,7 +7877,7 @@
         <v>72</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>73</v>
@@ -7891,12 +7895,12 @@
         <v>72</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -7922,10 +7926,10 @@
         <v>126</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>140</v>
@@ -7978,7 +7982,7 @@
         <v>72</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>73</v>
@@ -7996,16 +8000,16 @@
         <v>72</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8027,10 +8031,10 @@
         <v>126</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>140</v>
@@ -8085,7 +8089,7 @@
         <v>72</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>73</v>
@@ -8108,7 +8112,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8134,10 +8138,10 @@
         <v>192</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8188,7 +8192,7 @@
         <v>72</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>73</v>
@@ -8211,7 +8215,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8237,10 +8241,10 @@
         <v>199</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8291,7 +8295,7 @@
         <v>72</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>73</v>
@@ -8314,7 +8318,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8337,13 +8341,13 @@
         <v>72</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8394,7 +8398,7 @@
         <v>72</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>73</v>
@@ -8412,12 +8416,12 @@
         <v>72</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8443,10 +8447,10 @@
         <v>126</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>140</v>
@@ -8499,7 +8503,7 @@
         <v>72</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>73</v>
@@ -8517,16 +8521,16 @@
         <v>72</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -8548,10 +8552,10 @@
         <v>126</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M70" t="s" s="2">
         <v>140</v>
@@ -8606,7 +8610,7 @@
         <v>72</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>73</v>
@@ -8629,7 +8633,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8655,10 +8659,10 @@
         <v>192</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -8709,7 +8713,7 @@
         <v>72</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>73</v>
@@ -8732,7 +8736,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -8758,10 +8762,10 @@
         <v>199</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -8812,7 +8816,7 @@
         <v>72</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>73</v>
@@ -8835,7 +8839,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -8858,13 +8862,13 @@
         <v>72</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -8915,7 +8919,7 @@
         <v>72</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>73</v>
@@ -8933,12 +8937,12 @@
         <v>72</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -8964,10 +8968,10 @@
         <v>126</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>140</v>
@@ -9020,7 +9024,7 @@
         <v>72</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>73</v>
@@ -9038,16 +9042,16 @@
         <v>72</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -9069,10 +9073,10 @@
         <v>126</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M75" t="s" s="2">
         <v>140</v>
@@ -9127,7 +9131,7 @@
         <v>72</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>73</v>
@@ -9150,7 +9154,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9176,10 +9180,10 @@
         <v>192</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9230,7 +9234,7 @@
         <v>72</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>80</v>
@@ -9253,7 +9257,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9279,10 +9283,10 @@
         <v>192</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9333,7 +9337,7 @@
         <v>72</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>80</v>
@@ -9356,7 +9360,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9382,10 +9386,10 @@
         <v>199</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -9436,7 +9440,7 @@
         <v>72</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>73</v>
@@ -9459,7 +9463,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9482,13 +9486,13 @@
         <v>72</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -9539,7 +9543,7 @@
         <v>72</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>73</v>
@@ -9557,12 +9561,12 @@
         <v>72</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -9588,10 +9592,10 @@
         <v>126</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M80" t="s" s="2">
         <v>140</v>
@@ -9644,7 +9648,7 @@
         <v>72</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>73</v>
@@ -9662,16 +9666,16 @@
         <v>72</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -9693,10 +9697,10 @@
         <v>126</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>140</v>
@@ -9751,7 +9755,7 @@
         <v>72</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>73</v>
@@ -9774,7 +9778,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -9800,10 +9804,10 @@
         <v>192</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -9830,13 +9834,13 @@
         <v>72</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>72</v>
@@ -9854,7 +9858,7 @@
         <v>72</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>73</v>
@@ -9877,7 +9881,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -9900,13 +9904,13 @@
         <v>72</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -9957,7 +9961,7 @@
         <v>72</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>73</v>
@@ -9980,7 +9984,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10003,13 +10007,13 @@
         <v>72</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10060,7 +10064,7 @@
         <v>72</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>73</v>
@@ -10083,7 +10087,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10106,13 +10110,13 @@
         <v>72</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10163,7 +10167,7 @@
         <v>72</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>73</v>
@@ -10186,7 +10190,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10209,13 +10213,13 @@
         <v>72</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -10266,7 +10270,7 @@
         <v>72</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>73</v>

--- a/StructureDefinition-quality-measure-report-organization.xlsx
+++ b/StructureDefinition-quality-measure-report-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2837" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2837" uniqueCount="306">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/quality-measure-report-organization</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/quality-measure-report-organization</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>7.0.0</t>
+    <t>8.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:11:15+00:00</t>
+    <t>2022-11-10T16:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Alvearie Team</t>
+    <t>LinuxForHealth Team</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/quality-measure-report</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/quality-measure-report</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -244,10 +244,6 @@
   </si>
   <si>
     <t>The MeasureReport resource contains the results of the calculation of a measure; and optionally a reference to the resources involved in that calculation.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}mrp-1:Measure Reports used for data collection SHALL NOT communicate group and score information {(type != 'data-collection') or group.exists().not()}mrp-2:Stratifiers SHALL be either a single criteria or a set of criteria components {group.stratifier.stratum.all(value.exists() xor component.exists())}</t>
   </si>
   <si>
     <t>Entity. Role, or Act</t>
@@ -281,7 +277,7 @@
     <t>MeasureReport.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+    <t xml:space="preserve">Meta {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-meta}
 </t>
   </si>
   <si>
@@ -431,7 +427,7 @@
     <t>measureParameterValue</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/measure-parameter-value}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/measure-parameter-value}
 </t>
   </si>
   <si>
@@ -744,7 +740,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/quality-measure-population-type</t>
+    <t>http://linuxforhealth.org/fhir/cdm/ValueSet/quality-measure-population-type</t>
   </si>
   <si>
     <t>MeasureReport.group.population.count</t>
@@ -763,7 +759,7 @@
     <t>MeasureReport.group.population.subjectResults</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ibm.com/fhir/cdm/StructureDefinition/patient-list)
+    <t xml:space="preserve">Reference(http://linuxforhealth.org/fhir/cdm/StructureDefinition/patient-list)
 </t>
   </si>
   <si>
@@ -823,7 +819,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://ibm.com/fhir/cdm/CodeSystem/measure-population-type"/&gt;
+    &lt;system value="http://linuxforhealth.org/fhir/cdm/CodeSystem/measure-population-type"/&gt;
     &lt;code value="care-gap"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1318,7 +1314,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="139.44140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.44921875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="70.86328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.98828125" customWidth="true" bestFit="true"/>
@@ -1540,18 +1536,18 @@
         <v>72</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK2" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1562,28 +1558,28 @@
         <v>73</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1633,13 +1629,13 @@
         <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>72</v>
@@ -1656,7 +1652,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1667,7 +1663,7 @@
         <v>73</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>72</v>
@@ -1679,13 +1675,13 @@
         <v>72</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1736,30 +1732,30 @@
         <v>72</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AF4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH4" t="s" s="2">
+      <c r="AI4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AI4" t="s" s="2">
+      <c r="AJ4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1770,28 +1766,28 @@
         <v>73</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1841,19 +1837,19 @@
         <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>72</v>
@@ -1864,7 +1860,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1875,7 +1871,7 @@
         <v>73</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>72</v>
@@ -1887,16 +1883,16 @@
         <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1922,43 +1918,43 @@
         <v>72</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>109</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>72</v>
@@ -1969,18 +1965,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>72</v>
@@ -1992,16 +1988,16 @@
         <v>72</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2051,34 +2047,34 @@
         <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>117</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2097,16 +2093,16 @@
         <v>72</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2156,7 +2152,7 @@
         <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>73</v>
@@ -2174,12 +2170,12 @@
         <v>72</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2202,13 +2198,13 @@
         <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2247,17 +2243,17 @@
         <v>72</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>73</v>
@@ -2269,7 +2265,7 @@
         <v>72</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>72</v>
@@ -2280,10 +2276,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>72</v>
@@ -2305,13 +2301,13 @@
         <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2362,7 +2358,7 @@
         <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>73</v>
@@ -2371,10 +2367,10 @@
         <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>72</v>
@@ -2385,11 +2381,11 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2402,25 +2398,25 @@
         <v>72</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>72</v>
@@ -2469,7 +2465,7 @@
         <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>73</v>
@@ -2481,18 +2477,18 @@
         <v>72</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2512,22 +2508,22 @@
         <v>72</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>72</v>
@@ -2576,7 +2572,7 @@
         <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>73</v>
@@ -2588,10 +2584,10 @@
         <v>72</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>72</v>
@@ -2599,7 +2595,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2607,31 +2603,31 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="I13" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2642,61 +2638,61 @@
         <v>72</v>
       </c>
       <c r="R13" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W13" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="S13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W13" t="s" s="2">
+      <c r="X13" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="X13" t="s" s="2">
+      <c r="Y13" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>72</v>
@@ -2704,7 +2700,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2712,31 +2708,31 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2762,46 +2758,46 @@
         <v>72</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH14" t="s" s="2">
+      <c r="AI14" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>72</v>
@@ -2809,7 +2805,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2817,28 +2813,28 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J15" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2889,22 +2885,22 @@
         <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>72</v>
@@ -2912,7 +2908,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2920,28 +2916,28 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J16" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2992,22 +2988,22 @@
         <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>72</v>
@@ -3015,7 +3011,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3026,25 +3022,25 @@
         <v>73</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3095,22 +3091,22 @@
         <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>72</v>
@@ -3118,7 +3114,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3129,25 +3125,25 @@
         <v>73</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J18" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3198,22 +3194,22 @@
         <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>72</v>
@@ -3221,7 +3217,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3229,28 +3225,28 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J19" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3301,19 +3297,19 @@
         <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>72</v>
@@ -3324,7 +3320,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3335,28 +3331,28 @@
         <v>73</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H20" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I20" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3382,14 +3378,14 @@
         <v>72</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="Y20" t="s" s="2">
-        <v>197</v>
-      </c>
       <c r="Z20" t="s" s="2">
         <v>72</v>
       </c>
@@ -3406,19 +3402,19 @@
         <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>72</v>
@@ -3429,7 +3425,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3437,10 +3433,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>72</v>
@@ -3452,13 +3448,13 @@
         <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3509,7 +3505,7 @@
         <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>73</v>
@@ -3518,10 +3514,10 @@
         <v>74</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>72</v>
@@ -3532,7 +3528,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3543,7 +3539,7 @@
         <v>73</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>72</v>
@@ -3555,13 +3551,13 @@
         <v>72</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3612,34 +3608,34 @@
         <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3658,16 +3654,16 @@
         <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="M23" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3717,7 +3713,7 @@
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>73</v>
@@ -3729,22 +3725,22 @@
         <v>72</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3757,25 +3753,25 @@
         <v>72</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="M24" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>72</v>
@@ -3824,7 +3820,7 @@
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>73</v>
@@ -3836,18 +3832,18 @@
         <v>72</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3858,25 +3854,25 @@
         <v>73</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3927,19 +3923,19 @@
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>72</v>
@@ -3950,7 +3946,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3958,7 +3954,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>74</v>
@@ -3973,13 +3969,13 @@
         <v>72</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4018,19 +4014,19 @@
         <v>72</v>
       </c>
       <c r="AA26" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AB26" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AB26" t="s" s="2">
-        <v>225</v>
-      </c>
       <c r="AC26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>73</v>
@@ -4042,7 +4038,7 @@
         <v>72</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>72</v>
@@ -4053,7 +4049,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4064,7 +4060,7 @@
         <v>73</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>72</v>
@@ -4076,13 +4072,13 @@
         <v>72</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4133,34 +4129,34 @@
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4179,16 +4175,16 @@
         <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="M28" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4238,7 +4234,7 @@
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>73</v>
@@ -4250,22 +4246,22 @@
         <v>72</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4278,25 +4274,25 @@
         <v>72</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="M29" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>72</v>
@@ -4345,7 +4341,7 @@
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>73</v>
@@ -4357,18 +4353,18 @@
         <v>72</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4379,25 +4375,25 @@
         <v>73</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J30" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4424,11 +4420,11 @@
         <v>72</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>72</v>
@@ -4446,19 +4442,19 @@
         <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>72</v>
@@ -4469,7 +4465,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4480,7 +4476,7 @@
         <v>73</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>72</v>
@@ -4492,13 +4488,13 @@
         <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4549,19 +4545,19 @@
         <v>72</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>72</v>
@@ -4572,7 +4568,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4583,7 +4579,7 @@
         <v>73</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>72</v>
@@ -4595,13 +4591,13 @@
         <v>72</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4652,19 +4648,19 @@
         <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>72</v>
@@ -4675,20 +4671,20 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>72</v>
@@ -4700,13 +4696,13 @@
         <v>72</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4757,7 +4753,7 @@
         <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>73</v>
@@ -4769,7 +4765,7 @@
         <v>72</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>72</v>
@@ -4780,7 +4776,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4791,7 +4787,7 @@
         <v>73</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>72</v>
@@ -4803,13 +4799,13 @@
         <v>72</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4860,34 +4856,34 @@
         <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -4906,16 +4902,16 @@
         <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="M35" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -4965,7 +4961,7 @@
         <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>73</v>
@@ -4977,22 +4973,22 @@
         <v>72</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5005,25 +5001,25 @@
         <v>72</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="M36" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>72</v>
@@ -5072,7 +5068,7 @@
         <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>73</v>
@@ -5084,18 +5080,18 @@
         <v>72</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5103,28 +5099,28 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5136,29 +5132,29 @@
         <v>72</v>
       </c>
       <c r="R37" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="X37" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="S37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="X37" t="s" s="2">
+      <c r="Y37" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="Z37" t="s" s="2">
         <v>72</v>
       </c>
@@ -5175,19 +5171,19 @@
         <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>72</v>
@@ -5198,7 +5194,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5209,7 +5205,7 @@
         <v>73</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>72</v>
@@ -5221,13 +5217,13 @@
         <v>72</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5278,19 +5274,19 @@
         <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>72</v>
@@ -5301,7 +5297,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5309,10 +5305,10 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>72</v>
@@ -5324,13 +5320,13 @@
         <v>72</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5381,19 +5377,19 @@
         <v>72</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>72</v>
@@ -5404,20 +5400,20 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>72</v>
@@ -5429,13 +5425,13 @@
         <v>72</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5486,7 +5482,7 @@
         <v>72</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>73</v>
@@ -5498,7 +5494,7 @@
         <v>72</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>72</v>
@@ -5509,7 +5505,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5520,7 +5516,7 @@
         <v>73</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>72</v>
@@ -5532,13 +5528,13 @@
         <v>72</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5589,34 +5585,34 @@
         <v>72</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5635,16 +5631,16 @@
         <v>72</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="M42" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5694,7 +5690,7 @@
         <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>73</v>
@@ -5706,22 +5702,22 @@
         <v>72</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -5734,25 +5730,25 @@
         <v>72</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="M43" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>72</v>
@@ -5801,7 +5797,7 @@
         <v>72</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>73</v>
@@ -5813,18 +5809,18 @@
         <v>72</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5832,28 +5828,28 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J44" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5865,7 +5861,7 @@
         <v>72</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>72</v>
@@ -5880,14 +5876,14 @@
         <v>72</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="Z44" t="s" s="2">
         <v>72</v>
       </c>
@@ -5904,19 +5900,19 @@
         <v>72</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>72</v>
@@ -5927,7 +5923,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5938,7 +5934,7 @@
         <v>73</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>72</v>
@@ -5950,13 +5946,13 @@
         <v>72</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6007,19 +6003,19 @@
         <v>72</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>72</v>
@@ -6030,7 +6026,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6041,7 +6037,7 @@
         <v>73</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>72</v>
@@ -6053,13 +6049,13 @@
         <v>72</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6110,19 +6106,19 @@
         <v>72</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>72</v>
@@ -6133,20 +6129,20 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>72</v>
@@ -6158,13 +6154,13 @@
         <v>72</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6215,7 +6211,7 @@
         <v>72</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>73</v>
@@ -6227,7 +6223,7 @@
         <v>72</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>72</v>
@@ -6238,7 +6234,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6249,7 +6245,7 @@
         <v>73</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>72</v>
@@ -6261,13 +6257,13 @@
         <v>72</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6318,34 +6314,34 @@
         <v>72</v>
       </c>
       <c r="AE48" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6364,16 +6360,16 @@
         <v>72</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="M49" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6423,7 +6419,7 @@
         <v>72</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>73</v>
@@ -6435,22 +6431,22 @@
         <v>72</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6463,25 +6459,25 @@
         <v>72</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L50" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="M50" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>72</v>
@@ -6530,7 +6526,7 @@
         <v>72</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>73</v>
@@ -6542,18 +6538,18 @@
         <v>72</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6561,28 +6557,28 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I51" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J51" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6594,7 +6590,7 @@
         <v>72</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>72</v>
@@ -6609,14 +6605,14 @@
         <v>72</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="Y51" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="Z51" t="s" s="2">
         <v>72</v>
       </c>
@@ -6633,19 +6629,19 @@
         <v>72</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>72</v>
@@ -6656,7 +6652,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6667,7 +6663,7 @@
         <v>73</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>72</v>
@@ -6679,13 +6675,13 @@
         <v>72</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6736,19 +6732,19 @@
         <v>72</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>72</v>
@@ -6759,7 +6755,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6770,7 +6766,7 @@
         <v>73</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>72</v>
@@ -6782,13 +6778,13 @@
         <v>72</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6839,19 +6835,19 @@
         <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>72</v>
@@ -6862,10 +6858,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>72</v>
@@ -6887,13 +6883,13 @@
         <v>72</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -6944,7 +6940,7 @@
         <v>72</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>73</v>
@@ -6956,7 +6952,7 @@
         <v>72</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>72</v>
@@ -6967,7 +6963,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -6978,7 +6974,7 @@
         <v>73</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>72</v>
@@ -6990,13 +6986,13 @@
         <v>72</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7047,34 +7043,34 @@
         <v>72</v>
       </c>
       <c r="AE55" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7093,16 +7089,16 @@
         <v>72</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L56" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="M56" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7152,7 +7148,7 @@
         <v>72</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>73</v>
@@ -7164,22 +7160,22 @@
         <v>72</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7192,25 +7188,25 @@
         <v>72</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L57" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="M57" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>72</v>
@@ -7259,7 +7255,7 @@
         <v>72</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>73</v>
@@ -7271,18 +7267,18 @@
         <v>72</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7290,28 +7286,28 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I58" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J58" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7323,7 +7319,7 @@
         <v>72</v>
       </c>
       <c r="R58" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>72</v>
@@ -7338,14 +7334,14 @@
         <v>72</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X58" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Y58" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="Y58" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="Z58" t="s" s="2">
         <v>72</v>
       </c>
@@ -7362,19 +7358,19 @@
         <v>72</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>72</v>
@@ -7385,7 +7381,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7396,7 +7392,7 @@
         <v>73</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>72</v>
@@ -7408,13 +7404,13 @@
         <v>72</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7465,19 +7461,19 @@
         <v>72</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>72</v>
@@ -7488,7 +7484,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7499,7 +7495,7 @@
         <v>73</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>72</v>
@@ -7511,13 +7507,13 @@
         <v>72</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7568,19 +7564,19 @@
         <v>72</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>72</v>
@@ -7591,7 +7587,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7602,25 +7598,25 @@
         <v>73</v>
       </c>
       <c r="F61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I61" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J61" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7671,19 +7667,19 @@
         <v>72</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>72</v>
@@ -7694,7 +7690,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7717,13 +7713,13 @@
         <v>72</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -7774,7 +7770,7 @@
         <v>72</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>73</v>
@@ -7786,7 +7782,7 @@
         <v>72</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>72</v>
@@ -7797,7 +7793,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7808,7 +7804,7 @@
         <v>73</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>72</v>
@@ -7820,13 +7816,13 @@
         <v>72</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -7877,34 +7873,34 @@
         <v>72</v>
       </c>
       <c r="AE63" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK63" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -7923,16 +7919,16 @@
         <v>72</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L64" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="M64" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -7982,7 +7978,7 @@
         <v>72</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>73</v>
@@ -7994,22 +7990,22 @@
         <v>72</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8022,25 +8018,25 @@
         <v>72</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L65" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="M65" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>72</v>
@@ -8089,7 +8085,7 @@
         <v>72</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>73</v>
@@ -8101,18 +8097,18 @@
         <v>72</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8135,13 +8131,13 @@
         <v>72</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8192,7 +8188,7 @@
         <v>72</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>73</v>
@@ -8204,7 +8200,7 @@
         <v>72</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>72</v>
@@ -8215,7 +8211,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8238,13 +8234,13 @@
         <v>72</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8295,7 +8291,7 @@
         <v>72</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>73</v>
@@ -8307,7 +8303,7 @@
         <v>72</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>72</v>
@@ -8318,7 +8314,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8329,7 +8325,7 @@
         <v>73</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>72</v>
@@ -8341,13 +8337,13 @@
         <v>72</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8398,34 +8394,34 @@
         <v>72</v>
       </c>
       <c r="AE68" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK68" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -8444,16 +8440,16 @@
         <v>72</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L69" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="M69" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -8503,7 +8499,7 @@
         <v>72</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>73</v>
@@ -8515,22 +8511,22 @@
         <v>72</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -8543,25 +8539,25 @@
         <v>72</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L70" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="M70" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N70" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>72</v>
@@ -8610,7 +8606,7 @@
         <v>72</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>73</v>
@@ -8622,18 +8618,18 @@
         <v>72</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8644,7 +8640,7 @@
         <v>73</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>72</v>
@@ -8656,13 +8652,13 @@
         <v>72</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -8713,19 +8709,19 @@
         <v>72</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>72</v>
@@ -8736,7 +8732,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -8759,13 +8755,13 @@
         <v>72</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -8816,7 +8812,7 @@
         <v>72</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>73</v>
@@ -8828,7 +8824,7 @@
         <v>72</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>72</v>
@@ -8839,7 +8835,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -8850,7 +8846,7 @@
         <v>73</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>72</v>
@@ -8862,13 +8858,13 @@
         <v>72</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -8919,34 +8915,34 @@
         <v>72</v>
       </c>
       <c r="AE73" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK73" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -8965,16 +8961,16 @@
         <v>72</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L74" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="M74" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -9024,7 +9020,7 @@
         <v>72</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>73</v>
@@ -9036,22 +9032,22 @@
         <v>72</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -9064,25 +9060,25 @@
         <v>72</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L75" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="M75" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N75" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>72</v>
@@ -9131,7 +9127,7 @@
         <v>72</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>73</v>
@@ -9143,18 +9139,18 @@
         <v>72</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9162,10 +9158,10 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>72</v>
@@ -9177,13 +9173,13 @@
         <v>72</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9234,19 +9230,19 @@
         <v>72</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>72</v>
@@ -9257,7 +9253,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9265,10 +9261,10 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>72</v>
@@ -9280,13 +9276,13 @@
         <v>72</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9337,19 +9333,19 @@
         <v>72</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>72</v>
@@ -9360,7 +9356,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9383,13 +9379,13 @@
         <v>72</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -9440,7 +9436,7 @@
         <v>72</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>73</v>
@@ -9452,7 +9448,7 @@
         <v>72</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>72</v>
@@ -9463,7 +9459,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9474,7 +9470,7 @@
         <v>73</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>72</v>
@@ -9486,13 +9482,13 @@
         <v>72</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K79" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="K79" t="s" s="2">
+      <c r="L79" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -9543,34 +9539,34 @@
         <v>72</v>
       </c>
       <c r="AE79" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK79" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -9589,16 +9585,16 @@
         <v>72</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L80" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="M80" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -9648,7 +9644,7 @@
         <v>72</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>73</v>
@@ -9660,22 +9656,22 @@
         <v>72</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -9688,25 +9684,25 @@
         <v>72</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L81" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="M81" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N81" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>72</v>
@@ -9755,7 +9751,7 @@
         <v>72</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>73</v>
@@ -9767,18 +9763,18 @@
         <v>72</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -9789,7 +9785,7 @@
         <v>73</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>72</v>
@@ -9801,13 +9797,13 @@
         <v>72</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -9834,14 +9830,14 @@
         <v>72</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X82" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Y82" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="Y82" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="Z82" t="s" s="2">
         <v>72</v>
       </c>
@@ -9858,19 +9854,19 @@
         <v>72</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>72</v>
@@ -9881,7 +9877,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -9892,7 +9888,7 @@
         <v>73</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>72</v>
@@ -9904,13 +9900,13 @@
         <v>72</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K83" t="s" s="2">
-        <v>236</v>
-      </c>
       <c r="L83" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -9961,19 +9957,19 @@
         <v>72</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>72</v>
@@ -9984,7 +9980,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -9995,7 +9991,7 @@
         <v>73</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>72</v>
@@ -10007,13 +10003,13 @@
         <v>72</v>
       </c>
       <c r="J84" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10064,19 +10060,19 @@
         <v>72</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>72</v>
@@ -10087,7 +10083,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10098,7 +10094,7 @@
         <v>73</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>72</v>
@@ -10110,13 +10106,13 @@
         <v>72</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10167,19 +10163,19 @@
         <v>72</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>72</v>
@@ -10190,7 +10186,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10213,13 +10209,13 @@
         <v>72</v>
       </c>
       <c r="J86" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="K86" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="K86" t="s" s="2">
+      <c r="L86" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -10270,7 +10266,7 @@
         <v>72</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>73</v>
@@ -10282,7 +10278,7 @@
         <v>72</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>72</v>
